--- a/Sprint6/Task Board Team A.xlsx
+++ b/Sprint6/Task Board Team A.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sourmaji\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Madhuri Vemulapaty" sheetId="4" r:id="rId1"/>
     <sheet name="Ankush Agrawal" sheetId="6" r:id="rId2"/>
     <sheet name="Sourav Maji" sheetId="5" r:id="rId3"/>
+    <sheet name="Shreyash Pandey" sheetId="7" r:id="rId4"/>
+    <sheet name="Sarthak Lav" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>Agile Task Board</t>
   </si>
@@ -301,13 +298,76 @@
   </si>
   <si>
     <t>Documented the web API</t>
+  </si>
+  <si>
+    <t>Shreyash Pandey</t>
+  </si>
+  <si>
+    <t>Login, Admin and Address</t>
+  </si>
+  <si>
+    <t>Creating a Logic App in Azure to connect a queue and table</t>
+  </si>
+  <si>
+    <t>Added confirmation pop-ups to submit buttons and added some validations</t>
+  </si>
+  <si>
+    <t>Populate the data in the drop down list using the auto suggest service of cognitive services</t>
+  </si>
+  <si>
+    <t>Ankush Agrawal</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Sarthak Lav</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Created virtual machine  on azure.</t>
+  </si>
+  <si>
+    <t>Created Resource and resource group on azure.</t>
+  </si>
+  <si>
+    <t>Made changes to the existing MVC Project - Password validations, error  Messages, Confirm password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made changes to the existing MVC Project - alignment and look and feel changed </t>
+  </si>
+  <si>
+    <t>The remaining comments were added in the MVC project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validations on phone number applied. </t>
+  </si>
+  <si>
+    <t>0-12-2019</t>
+  </si>
+  <si>
+    <t>Using function to create table on SQL Database</t>
+  </si>
+  <si>
+    <t>using connection string was diferent in cloud than in SQL server management software.</t>
+  </si>
+  <si>
+    <t>Using function to perform insert opertion on SQL Database</t>
+  </si>
+  <si>
+    <t>Using function to perform delete opertion on SQL Database</t>
+  </si>
+  <si>
+    <t>Created table in Azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -398,9 +458,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,6 +474,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -529,7 +616,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -723,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,29 +820,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="79.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="111.28515625" customWidth="1"/>
+    <col min="1" max="1" width="79.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="111.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,7 +850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -771,7 +858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -779,7 +866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -799,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -819,7 +906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -839,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -859,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -879,7 +966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -899,7 +986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -919,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -939,7 +1026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -959,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -979,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1019,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1122,401 +1209,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:6" ht="19.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
         <v>2.5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D8" s="6">
         <v>43773</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E8" s="6">
         <v>43773</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B9" s="4">
         <v>2.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C9" s="4">
         <v>2.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D9" s="6">
         <v>43773</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E9" s="6">
         <v>43773</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>43774</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E10" s="6">
         <v>43774</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
         <v>1.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D11" s="10">
         <v>43775</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E11" s="10">
         <v>43775</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
         <v>43776</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E12" s="10">
         <v>43776</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
         <v>43776</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E13" s="10">
         <v>43776</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
         <v>1.45</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D14" s="10">
         <v>43775</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E14" s="10">
         <v>43775</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B15" s="7">
         <v>2.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C15" s="7">
         <v>2.75</v>
       </c>
-      <c r="D10" s="16">
-        <v>43777</v>
-      </c>
-      <c r="E10" s="16">
-        <v>43777</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="D15" s="15">
+        <v>43777</v>
+      </c>
+      <c r="E15" s="15">
+        <v>43777</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D11" s="10">
-        <v>43777</v>
-      </c>
-      <c r="E11" s="10">
-        <v>43777</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>43777</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43777</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>43778</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43778</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>43778</v>
-      </c>
-      <c r="E14" s="10">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>43780</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="B16" s="4">
         <v>0.5</v>
       </c>
       <c r="C16" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43780</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4">
         <v>0.5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="C21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="10">
         <v>43781</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E21" s="10">
         <v>43781</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
         <v>1.5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D22" s="10">
         <v>43781</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E22" s="10">
         <v>43782</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
         <v>43782</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E23" s="10">
         <v>43782</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
         <v>43782</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E24" s="15">
         <v>43782</v>
       </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <v>43782</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E25" s="10">
         <v>43782</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="7">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1526,28 +1651,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="98.140625" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="98.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="19.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1608,7 +1735,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1624,11 +1751,11 @@
       <c r="E7" s="6">
         <v>43773</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="34.5" customHeight="1">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1668,7 +1795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +1812,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1702,7 +1829,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1722,7 +1849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1739,7 +1866,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1759,7 +1886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1779,8 +1906,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="4">
@@ -1799,8 +1926,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="4">
@@ -1819,8 +1946,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="4">
@@ -1836,8 +1963,8 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="4">
@@ -1858,7 +1985,892 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="111.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43773</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43773</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43774</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43775</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43775</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43776</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43776</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>43776</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43776</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43775</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43775</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43780</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43780</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43781</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43782</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>43782</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43782</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="111.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43773</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="A9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43773</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43803</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43771</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43774</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43775</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43775</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43776</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43776</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43776</v>
+      </c>
+      <c r="E16" s="10">
+        <v>43776</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43775</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43775</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>43777</v>
+      </c>
+      <c r="E21" s="15">
+        <v>43777</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>43777</v>
+      </c>
+      <c r="E22" s="15">
+        <v>43777</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E23" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43777</v>
+      </c>
+      <c r="E24" s="10">
+        <v>43777</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E26" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43778</v>
+      </c>
+      <c r="E27" s="10">
+        <v>43778</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43780</v>
+      </c>
+      <c r="E28" s="10">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43781</v>
+      </c>
+      <c r="E29" s="10">
+        <v>43781</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
